--- a/similarities/split_global/harmonic_similarity_timestamps_201.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:25.110000', '0:00:28.410000')]</t>
+          <t>('0:00:25.260000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:51.080000', '0:00:57.700000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=51.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:00:00.660000', '0:00:08.220000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000')]</t>
+          <t>('0:00:36.400000', '0:00:55.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=36.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6'], ['Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['A:min', 'D:min/A', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:maj6'], ['Eb:maj6', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.040000', '0:00:09.880000'), ('0:00:00.600000', '0:00:02.510000')]</t>
+          <t>('0:00:28.140000', '0:00:36.100000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.840000', '0:00:24.660000'), ('0:00:30.400000', '0:00:35.170000')]</t>
+          <t>('0:00:00.506000', '0:00:08.175000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=8.04', 'https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=28.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=20.84', 'https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=30.4']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000'), ('0:00:00.500000', '0:00:03.900000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A/3', 'D/7', 'G/3']]</t>
+          <t>['F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:03:31.700000', '0:03:34.600000')]</t>
+          <t>('0:04:02.220000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:01.257000', '0:01:04.972000')]</t>
+          <t>('0:00:21.720000', '0:00:24.960000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=211.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=61.257']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.72</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.253000', '0:00:22.735000')]</t>
+          <t>('0:01:34.060000', '0:01:45.580000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:42.620000', '0:00:45.660000')]</t>
+          <t>('0:01:26.660000', '0:01:36.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.253']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=94.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=42.62']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=86.66</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:59.600000', '0:01:13.880000')]</t>
+          <t>('0:00:01.640000', '0:00:10.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=2.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=59.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:00:12.824000', '0:00:20.865000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:00:01.440000', '0:00:40.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+          <t>('0:02:44.360000', '0:03:26.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=164.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:min', 'B:min', 'F#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:27.320000', '0:01:41.320000')]</t>
+          <t>('0:00:18.460000', '0:00:21.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:37.927913', '0:00:43.802561')]</t>
+          <t>('0:01:04.300000', '0:01:07.900000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=87.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=18.46</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=37.927913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:7']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:56.020000', '0:00:59.320000')]</t>
+          <t>('0:01:53.020000', '0:01:54.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:39.160000', '0:00:46.320000')]</t>
+          <t>('0:01:15.560000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=56.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=113.02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=39.16']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:00:08.158789', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000'), ('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:18.540000'), ('0:00:06.880000', '0:00:15.960000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:07.720000'), ('0:00:00.220000', '0:00:05.780000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D/2', 'A', 'G/2', 'D/5', 'A', 'G/2', 'D/5', 'A']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Ab', 'Eb', 'Bb', 'Ab', 'Eb', 'Bb']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:10.596000', '0:02:19.605000')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.096984', '0:00:20.962380')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=130.596']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=9.096984']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:33.270000', '0:01:42.970000')]</t>
+          <t>('0:00:21.140000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
